--- a/data/case1/11/Q2_13.xlsx
+++ b/data/case1/11/Q2_13.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.095466084332606727</v>
+        <v>0.11720183821370256</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999672619708</v>
+        <v>-0.0059999999854802866</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999746633819</v>
+        <v>-0.0039999999876343395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999524176246</v>
+        <v>-0.0079999999769881924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.021011346548834631</v>
+        <v>-0.0029999999876180183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0023470879257185828</v>
+        <v>-0.0019999999869995122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0061374879992479592</v>
+        <v>-0.0099999999677322648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999340809609</v>
+        <v>-0.0099999999670536965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999735347274</v>
+        <v>-0.0019999999852942096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999703230742</v>
+        <v>-0.001999999984743539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999645342612</v>
+        <v>-0.0029999999823688839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999610194621</v>
+        <v>-0.0034999999810909621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999576550422</v>
+        <v>-0.0034999999808773552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999325357507</v>
+        <v>-0.0079999999702495828</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996947897074</v>
+        <v>-0.00099999998699917825</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999635151866</v>
+        <v>-0.0019999999848900885</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999626572063</v>
+        <v>0.015767065741737696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999516773244</v>
+        <v>-0.0039999999807287523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999778967954</v>
+        <v>0.03385085310039404</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999762692084</v>
+        <v>-0.0039999999895528049</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999760267357</v>
+        <v>-0.0039999999894266836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999757993621</v>
+        <v>-0.0039999999893360894</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999675893747</v>
+        <v>-0.0049999999845171672</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999883958175</v>
+        <v>-0.019999999947589053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999882304387</v>
+        <v>-0.018188749791983483</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999782888693</v>
+        <v>-0.0024999999855559452</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999785952909</v>
+        <v>-0.0024999999852788335</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999829503068</v>
+        <v>-0.0019999999849558137</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.037069363080762585</v>
+        <v>0.023519860683967053</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999672883941</v>
+        <v>-0.059999999845826935</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999608878483</v>
+        <v>-0.006999999971444737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.053923581057064851</v>
+        <v>-0.0099999999645294935</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999783049134</v>
+        <v>0.025990885742677605</v>
       </c>
     </row>
   </sheetData>
